--- a/horarios/public/resources/MallaCurricular2010.xlsx
+++ b/horarios/public/resources/MallaCurricular2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDD60BE-71E1-4D67-BBC6-50F37827E675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8C766-32DE-4345-8744-7C0E47E5906E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="271">
   <si>
     <t>CBM1000</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>ACTIVIDAD TITULACION</t>
+  </si>
+  <si>
+    <t>Semestre</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1432,9 @@
       <c r="C1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1"/>
+      <c r="D1" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,7 +1447,9 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,7 +1462,9 @@
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +1477,9 @@
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,7 +1492,9 @@
       <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,7 +1507,9 @@
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,7 +1522,9 @@
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,7 +1537,9 @@
       <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,7 +1552,9 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,7 +1567,9 @@
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,7 +1582,9 @@
       <c r="C11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1597,9 @@
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,7 +1612,9 @@
       <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,7 +1627,9 @@
       <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,7 +1642,9 @@
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,7 +1657,9 @@
       <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1637,7 +1672,9 @@
       <c r="C17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1650,7 +1687,9 @@
       <c r="C18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1663,7 +1702,9 @@
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1676,7 +1717,9 @@
       <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,7 +1732,9 @@
       <c r="C21" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1702,7 +1747,9 @@
       <c r="C22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,7 +1762,9 @@
       <c r="C23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,7 +1777,9 @@
       <c r="C24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,7 +1792,9 @@
       <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1754,7 +1807,9 @@
       <c r="C26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1822,9 @@
       <c r="C27" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1780,7 +1837,9 @@
       <c r="C28" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
       <c r="E28"/>
       <c r="J28" s="13"/>
     </row>
@@ -1794,7 +1853,9 @@
       <c r="C29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" s="6">
+        <v>6</v>
+      </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,7 +1868,9 @@
       <c r="C30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" s="6">
+        <v>6</v>
+      </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,7 +1883,9 @@
       <c r="C31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1833,7 +1898,9 @@
       <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" s="6">
+        <v>6</v>
+      </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,7 +1913,9 @@
       <c r="C33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,7 +1928,9 @@
       <c r="C34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" s="7">
+        <v>7</v>
+      </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,7 +1943,9 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" s="7">
+        <v>7</v>
+      </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,7 +1958,9 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" s="7">
+        <v>7</v>
+      </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,7 +1973,9 @@
       <c r="C37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,7 +1988,9 @@
       <c r="C38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" s="7">
+        <v>7</v>
+      </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,7 +2003,9 @@
       <c r="C39" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" s="8">
+        <v>8</v>
+      </c>
       <c r="E39"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,7 +2018,9 @@
       <c r="C40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" s="8">
+        <v>8</v>
+      </c>
       <c r="E40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,7 +2033,9 @@
       <c r="C41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" s="8">
+        <v>8</v>
+      </c>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,7 +2048,9 @@
       <c r="C42" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" s="8">
+        <v>8</v>
+      </c>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,7 +2063,9 @@
       <c r="C43" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" s="8">
+        <v>8</v>
+      </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,7 +2078,9 @@
       <c r="C44" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" s="9">
+        <v>9</v>
+      </c>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,7 +2093,9 @@
       <c r="C45" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" s="9">
+        <v>9</v>
+      </c>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,7 +2108,9 @@
       <c r="C46" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" s="9">
+        <v>9</v>
+      </c>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,7 +2123,9 @@
       <c r="C47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" s="9">
+        <v>9</v>
+      </c>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2041,7 +2138,9 @@
       <c r="C48" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" s="9">
+        <v>9</v>
+      </c>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,7 +2153,9 @@
       <c r="C49" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" s="10">
+        <v>10</v>
+      </c>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,7 +2168,9 @@
       <c r="C50" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" s="10">
+        <v>10</v>
+      </c>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,7 +2183,9 @@
       <c r="C51" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" s="10">
+        <v>10</v>
+      </c>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2093,7 +2198,9 @@
       <c r="C52" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" s="10">
+        <v>10</v>
+      </c>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,7 +2213,9 @@
       <c r="C53" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" s="10">
+        <v>10</v>
+      </c>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,7 +2228,9 @@
       <c r="C54" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" s="23">
+        <v>5</v>
+      </c>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2132,7 +2243,9 @@
       <c r="C55" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" s="23">
+        <v>9</v>
+      </c>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,7 +2258,9 @@
       <c r="C56" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" s="10">
+        <v>11</v>
+      </c>
       <c r="E56"/>
     </row>
   </sheetData>
